--- a/策划案/日本語を勉強/N2巩固/旭日日本语-听力/听力练习.xlsx
+++ b/策划案/日本語を勉強/N2巩固/旭日日本语-听力/听力练习.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\DesignerDoc\策划案\日本語を勉強\N2巩固\旭日日本语-听力\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52F420B-EC3C-4237-B1F3-7332A1A3DBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A433C54-F378-49FB-BA42-7A5D4DDFAB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2280" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -363,10 +363,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>町はずれには所々に墓地があって、お盆になると人が集まる</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日帰り旅行で、子供を連れて発電所の見学ツアーに参加する</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -412,6 +408,162 @@
   </si>
   <si>
     <t>向こう岸まで泳いでいこうと思ったが、波が高くてあきらめた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高地に咲く花や野草の写真を撮るのが趣味だ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砂漠化が進み、得られるはずの食糧が手に入らなくなっている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>実家の田んぼでお米を育てているので、収穫の時期だけ手伝いに帰る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友達は夏休みにアメリカ大陸を横断するそうだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷間をくねくねと流れる川が、とても涼し気だ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彼は敗北が決定した瞬間、大声で何かを叫びながら天を仰いだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この峠を越えると、ここまでも広がる高原が見える</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夕方になると、この浜辺には夕陽を見に来るカップルが集まる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房総半島へ行くと、新鮮な海鮮を思う存分味わえるよ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温暖化によって北極や南極の氷が解け、海水面が上昇している</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この辺りは盆地だから、熱がこもりやすく夏はとても暑い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干潮時になると陸が現れて、島まで歩いて渡っていくことができる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本列島は細長く、南北で天候がかなり異なる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何週間も雨が降っていないので、ダムは空っぽだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月になると海開きがあり、ビーチは一気に盛り上がる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大阪よりの京都に住んでいたので、大阪には結構詳しい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目当ての名物を買わずに帰るわけにはいかないよ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昔この商店街は活気あるムードでにぎわっていたが、今はがらんとしている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毎朝、犬の散歩で川沿いを歩くのが日課です</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海に面したホテルでのんびり過ごしたい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今年の文化祭は、外部の人は立ち入り禁止だ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取引先との食事会で、誤って上座に座ってしまい、恥ずかしい思いをした</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>気がつくと、何匹もの犬に周囲を囲まれていた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上田さんの正面に座っている女性はどなたですか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>駅の周辺はビルが密集していて、隙間一つない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校の前方には、大きな森が広がっている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>側面から現れた敵チームの選手に、あっという間にボールを奪われた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踏切の手前で一時停止してください</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この情報はあくまでも内部機密だから、社外に漏らしてはいけない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬になると、池の表面が氷で覆われる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自宅は交通の不便が悪く、近くに駅もバス停もない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひどい方向音痴で、地図があってもしょっちゅう道に迷う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨夜、北東の空に流れ星が見えた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妹にポスターの両端を押さえてもらい、両面テープで壁に貼り付けた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>お隣が植えた木が境界線を越えて、うちの庭に入っている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住所により通学区域が設けられ、通うべき学校も指定されている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この道をまっすぐ行くと、工場地帯に通じる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>車線変更するときは、必ずバックミラーで工法を確認すること</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -737,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1658,7 +1810,7 @@
         <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -1669,7 +1821,7 @@
         <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -1680,7 +1832,7 @@
         <v>10</v>
       </c>
       <c r="C85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -1691,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -1702,7 +1854,7 @@
         <v>2</v>
       </c>
       <c r="C87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -1713,7 +1865,7 @@
         <v>3</v>
       </c>
       <c r="C88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -1724,7 +1876,7 @@
         <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -1735,7 +1887,7 @@
         <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -1746,7 +1898,7 @@
         <v>6</v>
       </c>
       <c r="C91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -1757,7 +1909,7 @@
         <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -1768,7 +1920,7 @@
         <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -1779,7 +1931,7 @@
         <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -1790,7 +1942,425 @@
         <v>10</v>
       </c>
       <c r="C95" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>11</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>11</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>11</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>11</v>
+      </c>
+      <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>11</v>
+      </c>
+      <c r="B100">
+        <v>5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>11</v>
+      </c>
+      <c r="B101">
+        <v>6</v>
+      </c>
+      <c r="C101" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>11</v>
+      </c>
+      <c r="B102">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>11</v>
+      </c>
+      <c r="B103">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>11</v>
+      </c>
+      <c r="B104">
+        <v>9</v>
+      </c>
+      <c r="C104" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>11</v>
+      </c>
+      <c r="B105">
+        <v>10</v>
+      </c>
+      <c r="C105" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>12</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>12</v>
+      </c>
+      <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="C107" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>12</v>
+      </c>
+      <c r="B108">
+        <v>3</v>
+      </c>
+      <c r="C108" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>12</v>
+      </c>
+      <c r="B109">
+        <v>4</v>
+      </c>
+      <c r="C109" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>12</v>
+      </c>
+      <c r="B110">
+        <v>5</v>
+      </c>
+      <c r="C110" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>12</v>
+      </c>
+      <c r="B111">
+        <v>6</v>
+      </c>
+      <c r="C111" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>12</v>
+      </c>
+      <c r="B112">
+        <v>7</v>
+      </c>
+      <c r="C112" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>12</v>
+      </c>
+      <c r="B113">
+        <v>8</v>
+      </c>
+      <c r="C113" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>12</v>
+      </c>
+      <c r="B114">
+        <v>9</v>
+      </c>
+      <c r="C114" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>12</v>
+      </c>
+      <c r="B115">
+        <v>10</v>
+      </c>
+      <c r="C115" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>13</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>13</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+      <c r="C117" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>13</v>
+      </c>
+      <c r="B118">
+        <v>3</v>
+      </c>
+      <c r="C118" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>13</v>
+      </c>
+      <c r="B119">
+        <v>4</v>
+      </c>
+      <c r="C119" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>13</v>
+      </c>
+      <c r="B120">
+        <v>5</v>
+      </c>
+      <c r="C120" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>13</v>
+      </c>
+      <c r="B121">
+        <v>6</v>
+      </c>
+      <c r="C121" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>13</v>
+      </c>
+      <c r="B122">
+        <v>7</v>
+      </c>
+      <c r="C122" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>13</v>
+      </c>
+      <c r="B123">
+        <v>8</v>
+      </c>
+      <c r="C123" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>13</v>
+      </c>
+      <c r="B124">
+        <v>9</v>
+      </c>
+      <c r="C124" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>14</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>14</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
+      </c>
+      <c r="C126" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>14</v>
+      </c>
+      <c r="B127">
+        <v>3</v>
+      </c>
+      <c r="C127" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>14</v>
+      </c>
+      <c r="B128">
+        <v>4</v>
+      </c>
+      <c r="C128" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>14</v>
+      </c>
+      <c r="B129">
+        <v>5</v>
+      </c>
+      <c r="C129" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>14</v>
+      </c>
+      <c r="B130">
+        <v>6</v>
+      </c>
+      <c r="C130" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>14</v>
+      </c>
+      <c r="B131">
+        <v>7</v>
+      </c>
+      <c r="C131" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>14</v>
+      </c>
+      <c r="B132">
+        <v>8</v>
+      </c>
+      <c r="C132" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>14</v>
+      </c>
+      <c r="B133">
+        <v>9</v>
+      </c>
+      <c r="C133" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
